--- a/dailywagesattendance.xlsx
+++ b/dailywagesattendance.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
-  <si>
-    <t>DAILY WAGES</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+  <si>
+    <t>Daily Wages</t>
   </si>
   <si>
     <t>Employee Attendance Report</t>
   </si>
   <si>
-    <t>December-2019</t>
+    <t>January-2020</t>
   </si>
   <si>
     <t>S.N.</t>
@@ -32,97 +32,97 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (Tue) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (Wed) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (Thu) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (Fri) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (Sat) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (Sun) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (Mon) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 (Tue) </t>
+    <t xml:space="preserve">1 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (Fri) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (Sat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (Sun) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (Mon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (Tue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (Wed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (Thu) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (Fri) </t>
   </si>
   <si>
     <t>Total</t>
@@ -131,6 +131,12 @@
     <t>MR. AKSHAY M NAIR</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -144,6 +150,12 @@
   </si>
   <si>
     <t>MR. ABHIJEET RAMESH RAWLE</t>
+  </si>
+  <si>
+    <t>MR. TEST M NAIR</t>
+  </si>
+  <si>
+    <t>MR. RANDOM M NAIR</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,97 +731,97 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -817,100 +829,100 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -921,100 +933,100 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1025,100 +1037,100 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1129,102 +1141,414 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>
